--- a/medicine/Enfance/Eleanor_Farjeon/Eleanor_Farjeon.xlsx
+++ b/medicine/Enfance/Eleanor_Farjeon/Eleanor_Farjeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleanor Farjeon (13 février 1881 - 5 juin 1965) est une poétesse britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père Benjamin Farjeon est un journaliste et auteur de romans populaires. 
 Un séjour en France en 1907 lui inspire une histoire avec un troubadour, point de départ de son roman le plus connu, Martin Pippin in the Apple Orchard.
@@ -546,7 +560,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dormez bien, petits chats !, Boulogne, les Livres du dragon d'or, 1996
 Elsie Piddock et sa corde à sauter, Paris, Gründ, 1999.</t>
